--- a/table_model____spi-6__lasso_($\beta_=_$0.5).xlsx
+++ b/table_model____spi-6__lasso_($\beta_=_$0.5).xlsx
@@ -690,10 +690,10 @@
         <v>1.12703818</v>
       </c>
       <c r="B2">
-        <v>1.55125627394973</v>
+        <v>1.45491870891758</v>
       </c>
       <c r="C2">
-        <v>1.550245211161323</v>
+        <v>1.471856765141204</v>
       </c>
       <c r="D2">
         <v>1.550245211161321</v>
@@ -845,10 +845,10 @@
         <v>1.14030363</v>
       </c>
       <c r="B3">
-        <v>1.134887162330747</v>
+        <v>1.126366672859066</v>
       </c>
       <c r="C3">
-        <v>1.13945291722255</v>
+        <v>1.12579633365797</v>
       </c>
       <c r="D3">
         <v>1.139452917222548</v>
@@ -1000,10 +1000,10 @@
         <v>0.681304577</v>
       </c>
       <c r="B4">
-        <v>0.3591157545759256</v>
+        <v>0.3743992638831122</v>
       </c>
       <c r="C4">
-        <v>0.3652399776847274</v>
+        <v>0.3824036984972098</v>
       </c>
       <c r="D4">
         <v>0.365239977684727</v>
@@ -1155,10 +1155,10 @@
         <v>0.408251684</v>
       </c>
       <c r="B5">
-        <v>0.5849162029379165</v>
+        <v>0.6940966941030486</v>
       </c>
       <c r="C5">
-        <v>0.589442456087891</v>
+        <v>0.6344174057241616</v>
       </c>
       <c r="D5">
         <v>0.5894424560878903</v>
@@ -1310,10 +1310,10 @@
         <v>-0.107509787</v>
       </c>
       <c r="B6">
-        <v>-0.5180961800509575</v>
+        <v>-0.476429070543839</v>
       </c>
       <c r="C6">
-        <v>-0.5191974522590017</v>
+        <v>-0.4876126950882174</v>
       </c>
       <c r="D6">
         <v>-0.5191974522590013</v>
@@ -1465,10 +1465,10 @@
         <v>-0.178373341</v>
       </c>
       <c r="B7">
-        <v>-0.5681325875389467</v>
+        <v>-0.5191029500803286</v>
       </c>
       <c r="C7">
-        <v>-0.5671444467214688</v>
+        <v>-0.518741537206396</v>
       </c>
       <c r="D7">
         <v>-0.5671444467214682</v>
@@ -1620,10 +1620,10 @@
         <v>0.686567453</v>
       </c>
       <c r="B8">
-        <v>0.409519657278313</v>
+        <v>0.4715741912711162</v>
       </c>
       <c r="C8">
-        <v>0.4130821268784872</v>
+        <v>0.4166055593847811</v>
       </c>
       <c r="D8">
         <v>0.4130821268784867</v>
@@ -1775,10 +1775,10 @@
         <v>0.231220732</v>
       </c>
       <c r="B9">
-        <v>0.2567915629298664</v>
+        <v>0.3214701366615333</v>
       </c>
       <c r="C9">
-        <v>0.2601497766647873</v>
+        <v>0.2726238670615117</v>
       </c>
       <c r="D9">
         <v>0.2601497766647869</v>
@@ -1930,10 +1930,10 @@
         <v>-0.017236558</v>
       </c>
       <c r="B10">
-        <v>0.1136880692363378</v>
+        <v>0.1715309416172392</v>
       </c>
       <c r="C10">
-        <v>0.1171814083821369</v>
+        <v>0.1345607103249837</v>
       </c>
       <c r="D10">
         <v>0.1171814083821368</v>
@@ -2085,10 +2085,10 @@
         <v>-0.7497877120000001</v>
       </c>
       <c r="B11">
-        <v>-0.2202999434397627</v>
+        <v>-0.181348412885211</v>
       </c>
       <c r="C11">
-        <v>-0.217806387094624</v>
+        <v>-0.1967503013076563</v>
       </c>
       <c r="D11">
         <v>-0.2178063870946238</v>
@@ -2240,10 +2240,10 @@
         <v>-0.245343768</v>
       </c>
       <c r="B12">
-        <v>0.2819469112117877</v>
+        <v>0.3368032020351868</v>
       </c>
       <c r="C12">
-        <v>0.2857123865683941</v>
+        <v>0.2967912082523048</v>
       </c>
       <c r="D12">
         <v>0.2857123865683938</v>
@@ -2395,10 +2395,10 @@
         <v>-0.33157628</v>
       </c>
       <c r="B13">
-        <v>0.02539944336644134</v>
+        <v>0.03223343200207569</v>
       </c>
       <c r="C13">
-        <v>0.02873828381733204</v>
+        <v>0.007548331442605357</v>
       </c>
       <c r="D13">
         <v>0.02873828381733194</v>
@@ -2550,10 +2550,10 @@
         <v>-1.121163328</v>
       </c>
       <c r="B14">
-        <v>-1.022100012863046</v>
+        <v>-1.068614309310907</v>
       </c>
       <c r="C14">
-        <v>-1.027460662918009</v>
+        <v>-1.016704753361368</v>
       </c>
       <c r="D14">
         <v>-1.027460662918008</v>
@@ -2705,10 +2705,10 @@
         <v>-0.072537281</v>
       </c>
       <c r="B15">
-        <v>0.09972406888999027</v>
+        <v>0.2252946749514942</v>
       </c>
       <c r="C15">
-        <v>0.1032578074851051</v>
+        <v>0.1906349758234291</v>
       </c>
       <c r="D15">
         <v>0.1032578074851049</v>
@@ -2860,10 +2860,10 @@
         <v>0.309041204</v>
       </c>
       <c r="B16">
-        <v>0.5432357146587595</v>
+        <v>0.5305661716942832</v>
       </c>
       <c r="C16">
-        <v>0.5466131370162641</v>
+        <v>0.519762355633045</v>
       </c>
       <c r="D16">
         <v>0.5466131370162634</v>
@@ -3015,10 +3015,10 @@
         <v>0.418836013</v>
       </c>
       <c r="B17">
-        <v>0.4521645368401697</v>
+        <v>0.4120125200557859</v>
       </c>
       <c r="C17">
-        <v>0.4547320821831259</v>
+        <v>0.4283772751536443</v>
       </c>
       <c r="D17">
         <v>0.4547320821831254</v>
@@ -3170,10 +3170,10 @@
         <v>-0.260493354</v>
       </c>
       <c r="B18">
-        <v>-0.4319756041081976</v>
+        <v>-0.4264561327465165</v>
       </c>
       <c r="C18">
-        <v>-0.4286718652087762</v>
+        <v>-0.4170032565877206</v>
       </c>
       <c r="D18">
         <v>-0.4286718652087758</v>
@@ -3325,10 +3325,10 @@
         <v>-0.054560058</v>
       </c>
       <c r="B19">
-        <v>-0.009281691364723781</v>
+        <v>0.08254476835512424</v>
       </c>
       <c r="C19">
-        <v>-0.005548321683984725</v>
+        <v>0.07647536384812315</v>
       </c>
       <c r="D19">
         <v>-0.005548321683984767</v>
@@ -3480,10 +3480,10 @@
         <v>-0.134306691</v>
       </c>
       <c r="B20">
-        <v>-0.1333168016959784</v>
+        <v>-0.1129234215057466</v>
       </c>
       <c r="C20">
-        <v>-0.129799794939582</v>
+        <v>-0.1046700321004193</v>
       </c>
       <c r="D20">
         <v>-0.1297997949395819</v>
@@ -3635,10 +3635,10 @@
         <v>-1.373687226</v>
       </c>
       <c r="B21">
-        <v>-1.311639469864836</v>
+        <v>-1.352317909941386</v>
       </c>
       <c r="C21">
-        <v>-1.321066435738254</v>
+        <v>-1.293791362898781</v>
       </c>
       <c r="D21">
         <v>-1.321066435738253</v>
@@ -3790,10 +3790,10 @@
         <v>-2.021776558</v>
       </c>
       <c r="B22">
-        <v>-1.767773625125644</v>
+        <v>-1.847352954339907</v>
       </c>
       <c r="C22">
-        <v>-1.780033700069859</v>
+        <v>-1.756540024359239</v>
       </c>
       <c r="D22">
         <v>-1.780033700069857</v>
@@ -3945,10 +3945,10 @@
         <v>-2.768247153</v>
       </c>
       <c r="B23">
-        <v>-2.117924646013008</v>
+        <v>-2.232859007404416</v>
       </c>
       <c r="C23">
-        <v>-2.138144871753771</v>
+        <v>-2.117549702443524</v>
       </c>
       <c r="D23">
         <v>-2.138144871753768</v>
@@ -4100,10 +4100,10 @@
         <v>-1.617556037</v>
       </c>
       <c r="B24">
-        <v>-1.192526088546986</v>
+        <v>-1.179296625804673</v>
       </c>
       <c r="C24">
-        <v>-1.193804550741568</v>
+        <v>-1.141042988077598</v>
       </c>
       <c r="D24">
         <v>-1.193804550741566</v>
@@ -4255,10 +4255,10 @@
         <v>-1.780869488</v>
       </c>
       <c r="B25">
-        <v>-1.807762783430752</v>
+        <v>-1.880125081957654</v>
       </c>
       <c r="C25">
-        <v>-1.819204774221019</v>
+        <v>-1.786421259721948</v>
       </c>
       <c r="D25">
         <v>-1.819204774221017</v>
@@ -4410,10 +4410,10 @@
         <v>-1.300452484</v>
       </c>
       <c r="B26">
-        <v>-1.365185394812724</v>
+        <v>-1.358907377096335</v>
       </c>
       <c r="C26">
-        <v>-1.368671047368925</v>
+        <v>-1.311423868972352</v>
       </c>
       <c r="D26">
         <v>-1.368671047368923</v>
@@ -4565,10 +4565,10 @@
         <v>-1.77117984</v>
       </c>
       <c r="B27">
-        <v>-1.625707668515678</v>
+        <v>-1.707085578678924</v>
       </c>
       <c r="C27">
-        <v>-1.631562846118586</v>
+        <v>-1.610170975725357</v>
       </c>
       <c r="D27">
         <v>-1.631562846118584</v>
@@ -4720,10 +4720,10 @@
         <v>-1.377645584</v>
       </c>
       <c r="B28">
-        <v>-1.245644340939071</v>
+        <v>-1.363805933569409</v>
       </c>
       <c r="C28">
-        <v>-1.249826958762565</v>
+        <v>-1.257333400200873</v>
       </c>
       <c r="D28">
         <v>-1.249826958762563</v>
@@ -4875,10 +4875,10 @@
         <v>-0.193821668</v>
       </c>
       <c r="B29">
-        <v>0.01648891198971417</v>
+        <v>0.06427861017661672</v>
       </c>
       <c r="C29">
-        <v>0.01978793988417016</v>
+        <v>0.03906345975975607</v>
       </c>
       <c r="D29">
         <v>0.01978793988417006</v>
@@ -5030,10 +5030,10 @@
         <v>-0.135364639</v>
       </c>
       <c r="B30">
-        <v>0.533673208573331</v>
+        <v>0.5465446466321136</v>
       </c>
       <c r="C30">
-        <v>0.5372868396637119</v>
+        <v>0.5283657152225191</v>
       </c>
       <c r="D30">
         <v>0.5372868396637113</v>
@@ -5185,10 +5185,10 @@
         <v>-0.360498282</v>
       </c>
       <c r="B31">
-        <v>0.2403600058793056</v>
+        <v>0.2910306585686804</v>
       </c>
       <c r="C31">
-        <v>0.2438642252352202</v>
+        <v>0.2531487829192371</v>
       </c>
       <c r="D31">
         <v>0.2438642252352199</v>
@@ -5340,10 +5340,10 @@
         <v>-0.859042275</v>
       </c>
       <c r="B32">
-        <v>-0.1469553969700294</v>
+        <v>-0.1449650030136184</v>
       </c>
       <c r="C32">
-        <v>-0.1447951143683846</v>
+        <v>-0.1465058759369446</v>
       </c>
       <c r="D32">
         <v>-0.1447951143683844</v>
@@ -5495,10 +5495,10 @@
         <v>-0.149240493</v>
       </c>
       <c r="B33">
-        <v>0.3216182672907136</v>
+        <v>0.3702720643480012</v>
       </c>
       <c r="C33">
-        <v>0.325225298271016</v>
+        <v>0.3237323488136443</v>
       </c>
       <c r="D33">
         <v>0.3252252982710155</v>
@@ -5650,10 +5650,10 @@
         <v>-0.236175245</v>
       </c>
       <c r="B34">
-        <v>0.2656117049791378</v>
+        <v>0.2752601962705797</v>
       </c>
       <c r="C34">
-        <v>0.2691140028765695</v>
+        <v>0.2691743040945961</v>
       </c>
       <c r="D34">
         <v>0.2691140028765691</v>
@@ -5805,10 +5805,10 @@
         <v>-1.022433007</v>
       </c>
       <c r="B35">
-        <v>-0.483933929158158</v>
+        <v>-0.4709244800798506</v>
       </c>
       <c r="C35">
-        <v>-0.4817462174881975</v>
+        <v>-0.4573374620792959</v>
       </c>
       <c r="D35">
         <v>-0.4817462174881971</v>
@@ -5960,10 +5960,10 @@
         <v>-1.53558335</v>
       </c>
       <c r="B36">
-        <v>-1.212664492724984</v>
+        <v>-1.249798079329277</v>
       </c>
       <c r="C36">
-        <v>-1.220807916382062</v>
+        <v>-1.202332838202993</v>
       </c>
       <c r="D36">
         <v>-1.22080791638206</v>
@@ -6115,10 +6115,10 @@
         <v>-1.348318065</v>
       </c>
       <c r="B37">
-        <v>-1.064785091534666</v>
+        <v>-1.080338438737699</v>
       </c>
       <c r="C37">
-        <v>-1.070197442118764</v>
+        <v>-1.045815228472263</v>
       </c>
       <c r="D37">
         <v>-1.070197442118763</v>
@@ -6270,10 +6270,10 @@
         <v>-0.915745502</v>
       </c>
       <c r="B38">
-        <v>-0.8032883622977057</v>
+        <v>-0.7965462191229116</v>
       </c>
       <c r="C38">
-        <v>-0.8043363255105431</v>
+        <v>-0.7765725512491898</v>
       </c>
       <c r="D38">
         <v>-0.8043363255105422</v>
@@ -6425,10 +6425,10 @@
         <v>-0.422632353</v>
       </c>
       <c r="B39">
-        <v>-0.4622621084042569</v>
+        <v>-0.442348656564598</v>
       </c>
       <c r="C39">
-        <v>-0.4594991033787765</v>
+        <v>-0.4307843030342096</v>
       </c>
       <c r="D39">
         <v>-0.4594991033787761</v>
@@ -6580,10 +6580,10 @@
         <v>-0.350518731</v>
       </c>
       <c r="B40">
-        <v>-0.3533047881260677</v>
+        <v>-0.3514781690829413</v>
       </c>
       <c r="C40">
-        <v>-0.3503906729031143</v>
+        <v>-0.3354217352564214</v>
       </c>
       <c r="D40">
         <v>-0.3503906729031139</v>
@@ -6735,10 +6735,10 @@
         <v>-0.128190664</v>
       </c>
       <c r="B41">
-        <v>-0.07041412044708892</v>
+        <v>-0.05362066584674914</v>
       </c>
       <c r="C41">
-        <v>-0.06695349324255172</v>
+        <v>-0.05874259730399317</v>
       </c>
       <c r="D41">
         <v>-0.0669534932425517</v>
@@ -6890,10 +6890,10 @@
         <v>0.063051911</v>
       </c>
       <c r="B42">
-        <v>-0.1220984458465664</v>
+        <v>-0.579747998706342</v>
       </c>
       <c r="C42">
-        <v>-0.1187253345300915</v>
+        <v>-0.5222384077750672</v>
       </c>
       <c r="D42">
         <v>-0.1187253345300915</v>
@@ -7045,10 +7045,10 @@
         <v>0.693438741</v>
       </c>
       <c r="B43">
-        <v>0.5727452551037903</v>
+        <v>0.5852655482679049</v>
       </c>
       <c r="C43">
-        <v>0.5738386573378518</v>
+        <v>0.566555904241092</v>
       </c>
       <c r="D43">
         <v>0.573838657337851</v>
@@ -7200,10 +7200,10 @@
         <v>1.457632203</v>
       </c>
       <c r="B44">
-        <v>1.729389632376793</v>
+        <v>1.660407453358657</v>
       </c>
       <c r="C44">
-        <v>1.717399740045059</v>
+        <v>1.583327763173432</v>
       </c>
       <c r="D44">
         <v>1.717399740045057</v>
@@ -7355,10 +7355,10 @@
         <v>0.925767399</v>
       </c>
       <c r="B45">
-        <v>1.584224478809757</v>
+        <v>1.554809997798673</v>
       </c>
       <c r="C45">
-        <v>1.578010071517583</v>
+        <v>1.464647383471968</v>
       </c>
       <c r="D45">
         <v>1.578010071517581</v>
@@ -7510,10 +7510,10 @@
         <v>1.438674037</v>
       </c>
       <c r="B46">
-        <v>1.91707124051342</v>
+        <v>1.88400949385845</v>
       </c>
       <c r="C46">
-        <v>1.906077558609835</v>
+        <v>1.750194724215812</v>
       </c>
       <c r="D46">
         <v>1.906077558609833</v>
@@ -7665,10 +7665,10 @@
         <v>1.050844567</v>
       </c>
       <c r="B47">
-        <v>1.76591905279731</v>
+        <v>1.683325810771513</v>
       </c>
       <c r="C47">
-        <v>1.75533543000185</v>
+        <v>1.620616476002728</v>
       </c>
       <c r="D47">
         <v>1.755335430001848</v>
@@ -7820,10 +7820,10 @@
         <v>1.019025634</v>
       </c>
       <c r="B48">
-        <v>1.649626924069858</v>
+        <v>1.472023850240521</v>
       </c>
       <c r="C48">
-        <v>1.638746937046411</v>
+        <v>1.475167810500096</v>
       </c>
       <c r="D48">
         <v>1.63874693704641</v>
@@ -7975,10 +7975,10 @@
         <v>0.702825517</v>
       </c>
       <c r="B49">
-        <v>1.390957017042568</v>
+        <v>1.248266902024783</v>
       </c>
       <c r="C49">
-        <v>1.386582205544334</v>
+        <v>1.26478488894732</v>
       </c>
       <c r="D49">
         <v>1.386582205544332</v>
@@ -8130,10 +8130,10 @@
         <v>-0.07035459600000001</v>
       </c>
       <c r="B50">
-        <v>0.1239128998654434</v>
+        <v>0.09315834545674564</v>
       </c>
       <c r="C50">
-        <v>0.1282283256970653</v>
+        <v>0.1178469734186374</v>
       </c>
       <c r="D50">
         <v>0.1282283256970651</v>
@@ -8285,10 +8285,10 @@
         <v>-0.463687422</v>
       </c>
       <c r="B51">
-        <v>-0.4690341826564067</v>
+        <v>-0.4672640162554194</v>
       </c>
       <c r="C51">
-        <v>-0.4660512339483639</v>
+        <v>-0.4448390548437983</v>
       </c>
       <c r="D51">
         <v>-0.4660512339483634</v>
@@ -8440,10 +8440,10 @@
         <v>-1.238225604</v>
       </c>
       <c r="B52">
-        <v>-1.310389960251227</v>
+        <v>-1.336615796735223</v>
       </c>
       <c r="C52">
-        <v>-1.317234656633113</v>
+        <v>-1.273193780224146</v>
       </c>
       <c r="D52">
         <v>-1.317234656633112</v>
@@ -8595,10 +8595,10 @@
         <v>-0.60508294</v>
       </c>
       <c r="B53">
-        <v>-0.8083400256630313</v>
+        <v>-0.7922123453030572</v>
       </c>
       <c r="C53">
-        <v>-0.8070679963919328</v>
+        <v>-0.7714626633279401</v>
       </c>
       <c r="D53">
         <v>-0.8070679963919319</v>
@@ -8750,10 +8750,10 @@
         <v>-0.017287212</v>
       </c>
       <c r="B54">
-        <v>0.4371538976890098</v>
+        <v>0.3626488355432604</v>
       </c>
       <c r="C54">
-        <v>0.4406405319813996</v>
+        <v>0.4021965186661229</v>
       </c>
       <c r="D54">
         <v>0.440640531981399</v>
@@ -8905,10 +8905,10 @@
         <v>0.400816827</v>
       </c>
       <c r="B55">
-        <v>0.8683906484064164</v>
+        <v>0.8102791752688537</v>
       </c>
       <c r="C55">
-        <v>0.8697753304884173</v>
+        <v>0.8259023574125048</v>
       </c>
       <c r="D55">
         <v>0.8697753304884163</v>
@@ -9060,10 +9060,10 @@
         <v>1.139826615</v>
       </c>
       <c r="B56">
-        <v>1.442010354688054</v>
+        <v>1.293653114219897</v>
       </c>
       <c r="C56">
-        <v>1.436163440499501</v>
+        <v>1.337057882009889</v>
       </c>
       <c r="D56">
         <v>1.436163440499499</v>
@@ -9215,10 +9215,10 @@
         <v>1.216172342</v>
       </c>
       <c r="B57">
-        <v>1.638535364214455</v>
+        <v>1.514915606234912</v>
       </c>
       <c r="C57">
-        <v>1.632028847729905</v>
+        <v>1.517867134816794</v>
       </c>
       <c r="D57">
         <v>1.632028847729903</v>
@@ -9370,10 +9370,10 @@
         <v>1.317836986</v>
       </c>
       <c r="B58">
-        <v>1.542311728634289</v>
+        <v>1.429484517948646</v>
       </c>
       <c r="C58">
-        <v>1.53648544156435</v>
+        <v>1.409816756535168</v>
       </c>
       <c r="D58">
         <v>1.536485441564349</v>
@@ -9525,10 +9525,10 @@
         <v>1.016928937</v>
       </c>
       <c r="B59">
-        <v>1.245873562896397</v>
+        <v>1.136414204961825</v>
       </c>
       <c r="C59">
-        <v>1.243603958861954</v>
+        <v>1.155336154813669</v>
       </c>
       <c r="D59">
         <v>1.243603958861952</v>
@@ -9680,10 +9680,10 @@
         <v>0.845043648</v>
       </c>
       <c r="B60">
-        <v>1.131650838150633</v>
+        <v>1.078835397182708</v>
       </c>
       <c r="C60">
-        <v>1.130839747669659</v>
+        <v>1.080399945894623</v>
       </c>
       <c r="D60">
         <v>1.130839747669658</v>
@@ -9835,10 +9835,10 @@
         <v>0.6860601039999999</v>
       </c>
       <c r="B61">
-        <v>0.9181011966570648</v>
+        <v>0.8766261986536783</v>
       </c>
       <c r="C61">
-        <v>0.9205516435419036</v>
+        <v>0.8780640645770752</v>
       </c>
       <c r="D61">
         <v>0.9205516435419024</v>
@@ -9990,10 +9990,10 @@
         <v>-0.019694092</v>
       </c>
       <c r="B62">
-        <v>0.2442653119213751</v>
+        <v>0.3294247090453309</v>
       </c>
       <c r="C62">
-        <v>0.2480431536518132</v>
+        <v>0.2537707094953663</v>
       </c>
       <c r="D62">
         <v>0.2480431536518128</v>
@@ -10145,10 +10145,10 @@
         <v>-0.366212842</v>
       </c>
       <c r="B63">
-        <v>-0.004377857804994226</v>
+        <v>0.03552857714409718</v>
       </c>
       <c r="C63">
-        <v>-0.001549304523777079</v>
+        <v>0.01113272733367177</v>
       </c>
       <c r="D63">
         <v>-0.001549304523777148</v>
@@ -10300,10 +10300,10 @@
         <v>1.5856655</v>
       </c>
       <c r="B64">
-        <v>1.685587717036405</v>
+        <v>1.685958270177365</v>
       </c>
       <c r="C64">
-        <v>1.676229392714454</v>
+        <v>1.548356826396814</v>
       </c>
       <c r="D64">
         <v>1.676229392714452</v>
@@ -10455,10 +10455,10 @@
         <v>1.886598222</v>
       </c>
       <c r="B65">
-        <v>1.831822742500099</v>
+        <v>1.901375198691476</v>
       </c>
       <c r="C65">
-        <v>1.821357164951867</v>
+        <v>1.686465740452328</v>
       </c>
       <c r="D65">
         <v>1.821357164951865</v>
@@ -10610,10 +10610,10 @@
         <v>2.355489398</v>
       </c>
       <c r="B66">
-        <v>2.020656722110628</v>
+        <v>2.174681622702928</v>
       </c>
       <c r="C66">
-        <v>2.012945424071412</v>
+        <v>1.876982584066587</v>
       </c>
       <c r="D66">
         <v>2.01294542407141</v>
@@ -10765,10 +10765,10 @@
         <v>2.175336124</v>
       </c>
       <c r="B67">
-        <v>1.81200848268199</v>
+        <v>1.873889329368727</v>
       </c>
       <c r="C67">
-        <v>1.804729521796829</v>
+        <v>1.696979530636515</v>
       </c>
       <c r="D67">
         <v>1.804729521796827</v>
@@ -10920,10 +10920,10 @@
         <v>2.193614808</v>
       </c>
       <c r="B68">
-        <v>1.603811187974326</v>
+        <v>1.633749153141823</v>
       </c>
       <c r="C68">
-        <v>1.599322335946202</v>
+        <v>1.524077147905907</v>
       </c>
       <c r="D68">
         <v>1.5993223359462</v>
@@ -11075,10 +11075,10 @@
         <v>2.430700245</v>
       </c>
       <c r="B69">
-        <v>1.760374792118227</v>
+        <v>1.803601202018129</v>
       </c>
       <c r="C69">
-        <v>1.75385079505112</v>
+        <v>1.687893530643048</v>
       </c>
       <c r="D69">
         <v>1.753850795051118</v>
@@ -11230,10 +11230,10 @@
         <v>0.607910564</v>
       </c>
       <c r="B70">
-        <v>0.3153010451557963</v>
+        <v>0.366323878026798</v>
       </c>
       <c r="C70">
-        <v>0.31899005500585</v>
+        <v>0.3246877994131263</v>
       </c>
       <c r="D70">
         <v>0.3189900550058496</v>
@@ -11385,10 +11385,10 @@
         <v>1.103132367</v>
       </c>
       <c r="B71">
-        <v>0.700408952542683</v>
+        <v>0.5771823006585558</v>
       </c>
       <c r="C71">
-        <v>0.7045153257908754</v>
+        <v>0.6070521068767742</v>
       </c>
       <c r="D71">
         <v>0.7045153257908745</v>
@@ -11540,10 +11540,10 @@
         <v>0.726620534</v>
       </c>
       <c r="B72">
-        <v>0.3994190303602872</v>
+        <v>0.3611413326357006</v>
       </c>
       <c r="C72">
-        <v>0.403221970755299</v>
+        <v>0.371626334815165</v>
       </c>
       <c r="D72">
         <v>0.4032219707552985</v>
@@ -11695,10 +11695,10 @@
         <v>0.661591042</v>
       </c>
       <c r="B73">
-        <v>0.4409958861822434</v>
+        <v>0.4071848634393353</v>
       </c>
       <c r="C73">
-        <v>0.4447732864311467</v>
+        <v>0.4078021499928142</v>
       </c>
       <c r="D73">
         <v>0.4447732864311462</v>
@@ -11850,10 +11850,10 @@
         <v>0.815347372</v>
       </c>
       <c r="B74">
-        <v>0.6282378625248459</v>
+        <v>0.5691385924035087</v>
       </c>
       <c r="C74">
-        <v>0.6313163251089799</v>
+        <v>0.5789372439086319</v>
       </c>
       <c r="D74">
         <v>0.6313163251089791</v>
@@ -12005,10 +12005,10 @@
         <v>0.370963237</v>
       </c>
       <c r="B75">
-        <v>0.3513111927731335</v>
+        <v>0.2270637973599881</v>
       </c>
       <c r="C75">
-        <v>0.3552539209224043</v>
+        <v>0.2500653917105109</v>
       </c>
       <c r="D75">
         <v>0.3552539209224038</v>
@@ -12160,10 +12160,10 @@
         <v>0.75714769</v>
       </c>
       <c r="B76">
-        <v>0.6070292332902077</v>
+        <v>0.3924020601748531</v>
       </c>
       <c r="C76">
-        <v>0.6113198060957634</v>
+        <v>0.4190231482305029</v>
       </c>
       <c r="D76">
         <v>0.6113198060957626</v>
@@ -12315,10 +12315,10 @@
         <v>0.130291626</v>
       </c>
       <c r="B77">
-        <v>-0.1470486381894883</v>
+        <v>-0.1729793369125888</v>
       </c>
       <c r="C77">
-        <v>-0.1434141790727368</v>
+        <v>-0.1437798267580737</v>
       </c>
       <c r="D77">
         <v>-0.1434141790727367</v>
@@ -12470,10 +12470,10 @@
         <v>-0.109629176</v>
       </c>
       <c r="B78">
-        <v>-0.24834185119275</v>
+        <v>-0.2160922170667548</v>
       </c>
       <c r="C78">
-        <v>-0.2462760317489903</v>
+        <v>-0.2323033975377688</v>
       </c>
       <c r="D78">
         <v>-0.24627603174899</v>
@@ -12625,10 +12625,10 @@
         <v>0.913137665</v>
       </c>
       <c r="B79">
-        <v>0.6929456093407996</v>
+        <v>0.7064146935340466</v>
       </c>
       <c r="C79">
-        <v>0.6967718642839522</v>
+        <v>0.6765864973532212</v>
       </c>
       <c r="D79">
         <v>0.6967718642839512</v>
@@ -12780,10 +12780,10 @@
         <v>0.9945061630000001</v>
       </c>
       <c r="B80">
-        <v>0.8461363844955827</v>
+        <v>0.8450651444616077</v>
       </c>
       <c r="C80">
-        <v>0.8493278459149871</v>
+        <v>0.8324645843871369</v>
       </c>
       <c r="D80">
         <v>0.8493278459149861</v>
@@ -12935,10 +12935,10 @@
         <v>1.203316887</v>
       </c>
       <c r="B81">
-        <v>0.9353511108878863</v>
+        <v>1.483755969543773</v>
       </c>
       <c r="C81">
-        <v>0.9375733222798759</v>
+        <v>0.9250328334300731</v>
       </c>
       <c r="D81">
         <v>0.9375733222798747</v>
@@ -13090,10 +13090,10 @@
         <v>0.382738146</v>
       </c>
       <c r="B82">
-        <v>0.1653692637621502</v>
+        <v>0.28120583875233</v>
       </c>
       <c r="C82">
-        <v>0.1684570316125544</v>
+        <v>0.1989899832825289</v>
       </c>
       <c r="D82">
         <v>0.1684570316125541</v>
@@ -13245,10 +13245,10 @@
         <v>1.084617502</v>
       </c>
       <c r="B83">
-        <v>0.9238904159773337</v>
+        <v>1.074087616292582</v>
       </c>
       <c r="C83">
-        <v>0.9266492954717539</v>
+        <v>0.9354084032754084</v>
       </c>
       <c r="D83">
         <v>0.9266492954717528</v>
@@ -13400,10 +13400,10 @@
         <v>0.465588453</v>
       </c>
       <c r="B84">
-        <v>0.3928172713330964</v>
+        <v>0.5508909579156414</v>
       </c>
       <c r="C84">
-        <v>0.3965519604138625</v>
+        <v>0.4215950750573924</v>
       </c>
       <c r="D84">
         <v>0.3965519604138621</v>
@@ -13555,10 +13555,10 @@
         <v>-0.594869934</v>
       </c>
       <c r="B85">
-        <v>-0.6168439013192221</v>
+        <v>-0.5255329648124719</v>
       </c>
       <c r="C85">
-        <v>-0.6160836226118697</v>
+        <v>-0.5733325237181781</v>
       </c>
       <c r="D85">
         <v>-0.6160836226118691</v>
@@ -13710,10 +13710,10 @@
         <v>-0.876294891</v>
       </c>
       <c r="B86">
-        <v>-0.9413993588560976</v>
+        <v>-0.8863964096001222</v>
       </c>
       <c r="C86">
-        <v>-0.9424916129755001</v>
+        <v>-0.9012324476341451</v>
       </c>
       <c r="D86">
         <v>-0.9424916129754991</v>
@@ -13865,10 +13865,10 @@
         <v>-1.298027516</v>
       </c>
       <c r="B87">
-        <v>-1.344529561362457</v>
+        <v>-1.313458979369679</v>
       </c>
       <c r="C87">
-        <v>-1.34895550491317</v>
+        <v>-1.30527574243396</v>
       </c>
       <c r="D87">
         <v>-1.348955504913169</v>
@@ -14020,10 +14020,10 @@
         <v>-1.033099513</v>
       </c>
       <c r="B88">
-        <v>-0.7403578028840769</v>
+        <v>-0.6440982105297081</v>
       </c>
       <c r="C88">
-        <v>-0.7390249164701171</v>
+        <v>-0.6825149658587727</v>
       </c>
       <c r="D88">
         <v>-0.7390249164701164</v>
@@ -14175,10 +14175,10 @@
         <v>-1.477734207</v>
       </c>
       <c r="B89">
-        <v>-1.317306828414347</v>
+        <v>-1.330545305543635</v>
       </c>
       <c r="C89">
-        <v>-1.321608877641488</v>
+        <v>-1.298391272579651</v>
       </c>
       <c r="D89">
         <v>-1.321608877641486</v>
@@ -14330,10 +14330,10 @@
         <v>0.138019302</v>
       </c>
       <c r="B90">
-        <v>-0.2160558442750194</v>
+        <v>-0.07167155341258007</v>
       </c>
       <c r="C90">
-        <v>-0.2135144546767052</v>
+        <v>-0.1489346990905485</v>
       </c>
       <c r="D90">
         <v>-0.213514454676705</v>
@@ -14485,10 +14485,10 @@
         <v>0.386052651</v>
       </c>
       <c r="B91">
-        <v>0.05015411872818287</v>
+        <v>0.2224929954003525</v>
       </c>
       <c r="C91">
-        <v>0.05305318315558014</v>
+        <v>0.1190905331276014</v>
       </c>
       <c r="D91">
         <v>0.05305318315557998</v>
@@ -14640,10 +14640,10 @@
         <v>0.50370249</v>
       </c>
       <c r="B92">
-        <v>0.1640144873380575</v>
+        <v>0.4203229204518662</v>
       </c>
       <c r="C92">
-        <v>0.1671611081452737</v>
+        <v>0.2989428163866331</v>
       </c>
       <c r="D92">
         <v>0.1671611081452734</v>
@@ -14795,10 +14795,10 @@
         <v>0.997029061</v>
       </c>
       <c r="B93">
-        <v>0.4810448761336891</v>
+        <v>0.6196797522457086</v>
       </c>
       <c r="C93">
-        <v>0.484746595009432</v>
+        <v>0.4916659229188342</v>
       </c>
       <c r="D93">
         <v>0.4847465950094313</v>
@@ -14950,10 +14950,10 @@
         <v>1.133239879</v>
       </c>
       <c r="B94">
-        <v>0.5791191161904641</v>
+        <v>0.7257655801045295</v>
       </c>
       <c r="C94">
-        <v>0.5828371551059498</v>
+        <v>0.5923188226090115</v>
       </c>
       <c r="D94">
         <v>0.5828371551059491</v>
@@ -15105,10 +15105,10 @@
         <v>0.747303563</v>
       </c>
       <c r="B95">
-        <v>0.2758737445029557</v>
+        <v>0.3826463639472667</v>
       </c>
       <c r="C95">
-        <v>0.2793635172749909</v>
+        <v>0.2650947502686984</v>
       </c>
       <c r="D95">
         <v>0.2793635172749905</v>
@@ -15260,10 +15260,10 @@
         <v>-0.324059974</v>
       </c>
       <c r="B96">
-        <v>-0.4626671890632229</v>
+        <v>-0.3730022743403226</v>
       </c>
       <c r="C96">
-        <v>-0.4617949663593222</v>
+        <v>-0.4265107021326542</v>
       </c>
       <c r="D96">
         <v>-0.4617949663593218</v>
@@ -15415,10 +15415,10 @@
         <v>-0.318834909</v>
       </c>
       <c r="B97">
-        <v>-0.3375891464025816</v>
+        <v>-0.1643951554967972</v>
       </c>
       <c r="C97">
-        <v>-0.3351023895960931</v>
+        <v>-0.2439931579188634</v>
       </c>
       <c r="D97">
         <v>-0.3351023895960927</v>
@@ -15570,10 +15570,10 @@
         <v>-0.489685706</v>
       </c>
       <c r="B98">
-        <v>-0.4562542527532067</v>
+        <v>-0.2914742712189166</v>
       </c>
       <c r="C98">
-        <v>-0.4538891923020827</v>
+        <v>-0.3600835074831158</v>
       </c>
       <c r="D98">
         <v>-0.4538891923020822</v>
@@ -15725,10 +15725,10 @@
         <v>-1.24440553</v>
       </c>
       <c r="B99">
-        <v>-0.9521818573353605</v>
+        <v>-0.8680162879967999</v>
       </c>
       <c r="C99">
-        <v>-0.9526773575810623</v>
+        <v>-0.9000177292354992</v>
       </c>
       <c r="D99">
         <v>-0.9526773575810613</v>
@@ -15880,10 +15880,10 @@
         <v>-1.29987206</v>
       </c>
       <c r="B100">
-        <v>-0.6995576301494315</v>
+        <v>-0.5947065147546379</v>
       </c>
       <c r="C100">
-        <v>-0.6979735311501809</v>
+        <v>-0.6371924398404916</v>
       </c>
       <c r="D100">
         <v>-0.6979735311501802</v>
@@ -16035,10 +16035,10 @@
         <v>-1.103062627</v>
       </c>
       <c r="B101">
-        <v>-0.5039114172662653</v>
+        <v>-0.3888581905252878</v>
       </c>
       <c r="C101">
-        <v>-0.5017188068304679</v>
+        <v>-0.4380489707826423</v>
       </c>
       <c r="D101">
         <v>-0.5017188068304673</v>
@@ -16190,10 +16190,10 @@
         <v>-2.173105618</v>
       </c>
       <c r="B102">
-        <v>-1.019075657133124</v>
+        <v>-1.012403300533376</v>
       </c>
       <c r="C102">
-        <v>-1.022160610983277</v>
+        <v>-1.004378464321965</v>
       </c>
       <c r="D102">
         <v>-1.022160610983276</v>
@@ -16345,10 +16345,10 @@
         <v>-2.350437111</v>
       </c>
       <c r="B103">
-        <v>-1.597942111762831</v>
+        <v>-1.740201316297607</v>
       </c>
       <c r="C103">
-        <v>-1.611580318119167</v>
+        <v>-1.631350801148675</v>
       </c>
       <c r="D103">
         <v>-1.611580318119165</v>
@@ -16500,10 +16500,10 @@
         <v>-2.424850206</v>
       </c>
       <c r="B104">
-        <v>-1.856303183866269</v>
+        <v>-2.098581542714036</v>
       </c>
       <c r="C104">
-        <v>-1.875316280077523</v>
+        <v>-1.930139350175288</v>
       </c>
       <c r="D104">
         <v>-1.875316280077521</v>
@@ -16655,10 +16655,10 @@
         <v>-1.306491488</v>
       </c>
       <c r="B105">
-        <v>-1.289123301950279</v>
+        <v>-1.43382322757993</v>
       </c>
       <c r="C105">
-        <v>-1.29952213864353</v>
+        <v>-1.332422961996409</v>
       </c>
       <c r="D105">
         <v>-1.299522138643528</v>
@@ -16810,10 +16810,10 @@
         <v>-1.203195314</v>
       </c>
       <c r="B106">
-        <v>-1.421422588489086</v>
+        <v>-1.586603469642778</v>
       </c>
       <c r="C106">
-        <v>-1.433968776275324</v>
+        <v>-1.46687331033336</v>
       </c>
       <c r="D106">
         <v>-1.433968776275322</v>
@@ -16965,10 +16965,10 @@
         <v>-0.242662172</v>
       </c>
       <c r="B107">
-        <v>-0.6527321636440182</v>
+        <v>-0.6247219676689458</v>
       </c>
       <c r="C107">
-        <v>-0.6550721544065941</v>
+        <v>-0.6399808707906217</v>
       </c>
       <c r="D107">
         <v>-0.6550721544065934</v>
@@ -17120,10 +17120,10 @@
         <v>0.88970951</v>
       </c>
       <c r="B108">
-        <v>0.6395269473016304</v>
+        <v>0.8143064604655424</v>
       </c>
       <c r="C108">
-        <v>0.6428872090760714</v>
+        <v>0.669602676146593</v>
       </c>
       <c r="D108">
         <v>0.6428872090760707</v>
@@ -17275,10 +17275,10 @@
         <v>0.928446632</v>
       </c>
       <c r="B109">
-        <v>0.8355146615836506</v>
+        <v>1.011303951665367</v>
       </c>
       <c r="C109">
-        <v>0.8378848320605831</v>
+        <v>0.8618618725603607</v>
       </c>
       <c r="D109">
         <v>0.8378848320605821</v>
@@ -17430,10 +17430,10 @@
         <v>1.465487602</v>
       </c>
       <c r="B110">
-        <v>1.173522120484202</v>
+        <v>1.343547422444089</v>
       </c>
       <c r="C110">
-        <v>1.173168792855631</v>
+        <v>1.187232569882207</v>
       </c>
       <c r="D110">
         <v>1.17316879285563</v>
@@ -17585,10 +17585,10 @@
         <v>1.784585844</v>
       </c>
       <c r="B111">
-        <v>1.908585443004008</v>
+        <v>2.134257689077339</v>
       </c>
       <c r="C111">
-        <v>1.899905984173157</v>
+        <v>1.87261788546292</v>
       </c>
       <c r="D111">
         <v>1.899905984173154</v>
@@ -17740,10 +17740,10 @@
         <v>1.858495744</v>
       </c>
       <c r="B112">
-        <v>2.142532575806899</v>
+        <v>2.237091867507144</v>
       </c>
       <c r="C112">
-        <v>2.1302343456769</v>
+        <v>2.063905839503857</v>
       </c>
       <c r="D112">
         <v>2.130234345676898</v>
@@ -17895,10 +17895,10 @@
         <v>1.493374882</v>
       </c>
       <c r="B113">
-        <v>1.78052004384573</v>
+        <v>1.854413222569366</v>
       </c>
       <c r="C113">
-        <v>1.774685488466373</v>
+        <v>1.733410674511869</v>
       </c>
       <c r="D113">
         <v>1.774685488466371</v>
@@ -18050,10 +18050,10 @@
         <v>1.412473281</v>
       </c>
       <c r="B114">
-        <v>1.497991118186132</v>
+        <v>1.678372666572117</v>
       </c>
       <c r="C114">
-        <v>1.497876701817769</v>
+        <v>1.490010081018419</v>
       </c>
       <c r="D114">
         <v>1.497876701817767</v>
@@ -18205,10 +18205,10 @@
         <v>1.659878719</v>
       </c>
       <c r="B115">
-        <v>1.723437934319585</v>
+        <v>1.924496800286374</v>
       </c>
       <c r="C115">
-        <v>1.721659417467011</v>
+        <v>1.719613524200935</v>
       </c>
       <c r="D115">
         <v>1.721659417467009</v>
@@ -18360,10 +18360,10 @@
         <v>1.179616332</v>
       </c>
       <c r="B116">
-        <v>1.98384803169462</v>
+        <v>2.195079456258706</v>
       </c>
       <c r="C116">
-        <v>1.979524199737979</v>
+        <v>1.97595206931518</v>
       </c>
       <c r="D116">
         <v>1.979524199737977</v>
@@ -18515,10 +18515,10 @@
         <v>1.233273608</v>
       </c>
       <c r="B117">
-        <v>1.572781501388852</v>
+        <v>1.779603733400546</v>
       </c>
       <c r="C117">
-        <v>1.572025193232453</v>
+        <v>1.584986364741902</v>
       </c>
       <c r="D117">
         <v>1.572025193232451</v>
@@ -18670,10 +18670,10 @@
         <v>0.743599215</v>
       </c>
       <c r="B118">
-        <v>1.148959302230205</v>
+        <v>1.338520342864598</v>
       </c>
       <c r="C118">
-        <v>1.1512670099023</v>
+        <v>1.165704155270006</v>
       </c>
       <c r="D118">
         <v>1.151267009902299</v>
@@ -18825,10 +18825,10 @@
         <v>1.229907731</v>
       </c>
       <c r="B119">
-        <v>1.213153299445989</v>
+        <v>1.41880748428887</v>
       </c>
       <c r="C119">
-        <v>1.214585468880689</v>
+        <v>1.235310227148233</v>
       </c>
       <c r="D119">
         <v>1.214585468880687</v>
@@ -18980,10 +18980,10 @@
         <v>2.403226273</v>
       </c>
       <c r="B120">
-        <v>2.138307690469311</v>
+        <v>2.332047855537126</v>
       </c>
       <c r="C120">
-        <v>2.127897496275211</v>
+        <v>2.119828090458182</v>
       </c>
       <c r="D120">
         <v>2.127897496275208</v>
@@ -19135,10 +19135,10 @@
         <v>2.059121985</v>
       </c>
       <c r="B121">
-        <v>1.978149173619381</v>
+        <v>2.165852939225521</v>
       </c>
       <c r="C121">
-        <v>1.968939057445749</v>
+        <v>1.958005678740355</v>
       </c>
       <c r="D121">
         <v>1.968939057445747</v>
@@ -19290,10 +19290,10 @@
         <v>1.874258274</v>
       </c>
       <c r="B122">
-        <v>1.740959346109467</v>
+        <v>1.915795780397339</v>
       </c>
       <c r="C122">
-        <v>1.734423603045584</v>
+        <v>1.724864263780168</v>
       </c>
       <c r="D122">
         <v>1.734423603045582</v>
@@ -19445,10 +19445,10 @@
         <v>1.208393848</v>
       </c>
       <c r="B123">
-        <v>1.346368968491209</v>
+        <v>1.511969814003637</v>
       </c>
       <c r="C123">
-        <v>1.34452050300492</v>
+        <v>1.346729457260639</v>
       </c>
       <c r="D123">
         <v>1.344520503004919</v>
@@ -19600,10 +19600,10 @@
         <v>1.542184756</v>
       </c>
       <c r="B124">
-        <v>1.50197017314908</v>
+        <v>1.686410296218651</v>
       </c>
       <c r="C124">
-        <v>1.498318798942154</v>
+        <v>1.478502427290455</v>
       </c>
       <c r="D124">
         <v>1.498318798942152</v>
@@ -19755,10 +19755,10 @@
         <v>1.314560082</v>
       </c>
       <c r="B125">
-        <v>1.459836370407495</v>
+        <v>1.644422451963223</v>
       </c>
       <c r="C125">
-        <v>1.457553056594167</v>
+        <v>1.436119464270107</v>
       </c>
       <c r="D125">
         <v>1.457553056594165</v>
@@ -19910,10 +19910,10 @@
         <v>-1.001923586</v>
       </c>
       <c r="B126">
-        <v>-0.5902735743752301</v>
+        <v>-0.5253877021376163</v>
       </c>
       <c r="C126">
-        <v>-0.5898202171119358</v>
+        <v>-0.5630287193503667</v>
       </c>
       <c r="D126">
         <v>-0.5898202171119351</v>
@@ -20065,10 +20065,10 @@
         <v>0.304133877</v>
       </c>
       <c r="B127">
-        <v>0.6869013410925005</v>
+        <v>0.854586767448706</v>
       </c>
       <c r="C127">
-        <v>0.6905904197166508</v>
+        <v>0.7054934711590976</v>
       </c>
       <c r="D127">
         <v>0.6905904197166498</v>
@@ -20220,10 +20220,10 @@
         <v>0.17850123</v>
       </c>
       <c r="B128">
-        <v>0.3864456724732788</v>
+        <v>0.5208895001775224</v>
       </c>
       <c r="C128">
-        <v>0.3900839178643232</v>
+        <v>0.3930159608206159</v>
       </c>
       <c r="D128">
         <v>0.3900839178643227</v>
@@ -20375,10 +20375,10 @@
         <v>1.063120745</v>
       </c>
       <c r="B129">
-        <v>0.9785580217786164</v>
+        <v>1.164776866068959</v>
       </c>
       <c r="C129">
-        <v>0.981473140808533</v>
+        <v>0.9995998754470754</v>
       </c>
       <c r="D129">
         <v>0.9814731408085318</v>
@@ -20530,10 +20530,10 @@
         <v>0.464528379</v>
       </c>
       <c r="B130">
-        <v>0.5932925988143383</v>
+        <v>0.7417043129196665</v>
       </c>
       <c r="C130">
-        <v>0.5970080224884083</v>
+        <v>0.607040243466248</v>
       </c>
       <c r="D130">
         <v>0.5970080224884076</v>
@@ -20685,10 +20685,10 @@
         <v>0.740267424</v>
       </c>
       <c r="B131">
-        <v>1.164320670530088</v>
+        <v>1.368424937285482</v>
       </c>
       <c r="C131">
-        <v>1.166056077230381</v>
+        <v>1.1872748417812</v>
       </c>
       <c r="D131">
         <v>1.16605607723038</v>
@@ -20840,10 +20840,10 @@
         <v>0.991836694</v>
       </c>
       <c r="B132">
-        <v>1.51506164082807</v>
+        <v>1.708345070248658</v>
       </c>
       <c r="C132">
-        <v>1.512766836840773</v>
+        <v>1.526586962969001</v>
       </c>
       <c r="D132">
         <v>1.512766836840771</v>
@@ -20995,10 +20995,10 @@
         <v>-0.037111578</v>
       </c>
       <c r="B133">
-        <v>0.6319936931521805</v>
+        <v>0.8018824478292516</v>
       </c>
       <c r="C133">
-        <v>0.6352400441940472</v>
+        <v>0.661961993705484</v>
       </c>
       <c r="D133">
         <v>0.6352400441940464</v>
@@ -21150,10 +21150,10 @@
         <v>0.623458544</v>
       </c>
       <c r="B134">
-        <v>0.920586573793017</v>
+        <v>1.089819151862025</v>
       </c>
       <c r="C134">
-        <v>0.922116726813781</v>
+        <v>0.9437636738288147</v>
       </c>
       <c r="D134">
         <v>0.9221167268137799</v>
@@ -21305,10 +21305,10 @@
         <v>0.08882322099999999</v>
       </c>
       <c r="B135">
-        <v>0.6865611137196581</v>
+        <v>0.8527536802238043</v>
       </c>
       <c r="C135">
-        <v>0.6894528423953905</v>
+        <v>0.7149312148878499</v>
       </c>
       <c r="D135">
         <v>0.6894528423953896</v>
@@ -21460,10 +21460,10 @@
         <v>0.116119944</v>
       </c>
       <c r="B136">
-        <v>0.4051027401128155</v>
+        <v>0.5434909186842031</v>
       </c>
       <c r="C136">
-        <v>0.4087505503890259</v>
+        <v>0.433982730063335</v>
       </c>
       <c r="D136">
         <v>0.4087505503890254</v>
@@ -21615,10 +21615,10 @@
         <v>0.037484165</v>
       </c>
       <c r="B137">
-        <v>-0.03272841522834874</v>
+        <v>0.07062466696791501</v>
       </c>
       <c r="C137">
-        <v>-0.02894204232502234</v>
+        <v>-0.009419525824778306</v>
       </c>
       <c r="D137">
         <v>-0.02894204232502236</v>
@@ -21770,10 +21770,10 @@
         <v>0.468701595</v>
       </c>
       <c r="B138">
-        <v>0.2930593587048549</v>
+        <v>0.4218202485955194</v>
       </c>
       <c r="C138">
-        <v>0.2969188814388206</v>
+        <v>0.3090727749690076</v>
       </c>
       <c r="D138">
         <v>0.2969188814388202</v>
